--- a/Modelos/Listas das variaveis dos personagens.xlsx
+++ b/Modelos/Listas das variaveis dos personagens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -59,6 +59,12 @@
     <t xml:space="preserve">Qtd Bombas</t>
   </si>
   <si>
+    <t xml:space="preserve">Tempo Movimentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limite de Passos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Posição Bomba 1</t>
   </si>
   <si>
@@ -72,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endereço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perseguição</t>
   </si>
 </sst>
 </file>
@@ -81,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,6 +114,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -126,12 +145,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -192,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,47 +226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,6 +234,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,7 +262,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,7 +274,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,23 +282,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,7 +350,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF18A303"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -476,10 +513,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:J18"/>
+  <dimension ref="A3:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,22 +525,63 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="7" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.3"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(A3+4)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <f aca="false">SUM(B3+4)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">SUM(C3+4)</f>
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">SUM(D3+4)</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">SUM(E3+4)</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">SUM(F3+4)</f>
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">SUM(G3+4)</f>
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">SUM(H3+4)</f>
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">SUM(I3+4)</f>
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">SUM(J3+4)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,12 +590,23 @@
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="6" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -542,24 +631,79 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <f aca="false">SUM(A7+4)</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">SUM(B7+4)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">SUM(C7+4)</f>
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">SUM(D7+4)</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">SUM(E7+4)</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">SUM(F7+4)</f>
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">SUM(G7+4)</f>
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">SUM(H7+4)</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">SUM(I7+4)</f>
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">SUM(J7+4)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
@@ -568,35 +712,53 @@
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="10" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>9</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,102 +770,237 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <f aca="false">SUM(A11+4)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">SUM(B11+4)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">SUM(C11+4)</f>
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">SUM(D11+4)</f>
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">SUM(E11+4)</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">SUM(F11+4)</f>
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">SUM(G11+4)</f>
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">SUM(H11+4)</f>
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">SUM(I11+4)</f>
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">SUM(J11+4)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="E12" s="17" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>9</v>
       </c>
+      <c r="I13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <f aca="false">SUM(A15+4)</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">SUM(B15+4)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">SUM(C15+4)</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">SUM(D15+4)</f>
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">SUM(E15+4)</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">SUM(F15+4)</f>
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">SUM(G15+4)</f>
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">SUM(H15+4)</f>
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">SUM(I15+4)</f>
+        <v>36</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">SUM(J15+4)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="E16" s="24" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F16" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>9</v>
       </c>
+      <c r="I17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Modelos/Listas das variaveis dos personagens.xlsx
+++ b/Modelos/Listas das variaveis dos personagens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -85,6 +85,9 @@
   <si>
     <t xml:space="preserve">Perseguição</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cenário</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,8 +147,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +192,12 @@
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="11" tint="0.4"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -217,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,6 +344,14 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -387,7 +411,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF3838"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF9B51DE"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -513,16 +537,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:K18"/>
+  <dimension ref="A3:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
@@ -1002,6 +1026,17 @@
       <c r="J18" s="21"/>
       <c r="K18" s="27"/>
     </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="29"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
